--- a/process.xlsx
+++ b/process.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABEACE02EC4DC3D96A905BDE589E" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{02521ED3-B816-47C5-99DC-91AB61225123}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABEACE02EC4DC3D96A905BDE589E" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CB722491-39D6-4DBA-B730-8007B0E80FA4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Tuần</t>
   </si>
@@ -28,20 +28,44 @@
     <t>Công việc</t>
   </si>
   <si>
-    <t>Kết quả</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Bảng quá trình tiểu luận Image Description</t>
+    <t>Project: Image Description</t>
+  </si>
+  <si>
+    <t>THEO DÕI TIẾN ĐỘ CÔNG VIỆC</t>
+  </si>
+  <si>
+    <t>Từ ngày</t>
+  </si>
+  <si>
+    <t>Đến ngày</t>
+  </si>
+  <si>
+    <t>Tình trạng</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Gặp GV xác định yêu cầu</t>
+  </si>
+  <si>
+    <t>Tạo github project và add GV</t>
+  </si>
+  <si>
+    <t>Tạo bảng theo dõi công việc</t>
+  </si>
+  <si>
+    <t>Viết report về hiện trạng</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,26 +81,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -92,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -131,12 +172,40 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -144,13 +213,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,180 +531,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.6640625" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="57.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.88671875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>43353</v>
+      </c>
+      <c r="C6" s="7">
+        <v>43359</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+      <c r="B11" s="7">
+        <v>43360</v>
+      </c>
+      <c r="C11" s="7">
+        <v>43366</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="14">
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/process.xlsx
+++ b/process.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F25DC773A252ABEACE02EC4DC3D96A905BDE589E" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{94EBCDA5-CCAC-4F1C-9910-82F5929A0A34}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABEACE02EC4DC3D96A905BDE589E" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7BF7ABB5-2D98-438F-995E-FEC2241A9ED9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Tuần</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Tải và tìm hiểu dataset flickr8k</t>
+  </si>
+  <si>
+    <t>Tìm hiểu cấu trúc của model</t>
+  </si>
+  <si>
+    <t>Chạy thử model mẫu</t>
   </si>
 </sst>
 </file>
@@ -226,6 +232,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -235,26 +250,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -539,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -556,24 +562,24 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -596,13 +602,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>43353</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>43359</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -614,9 +620,9 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -626,9 +632,9 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -638,9 +644,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -650,21 +656,21 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="7">
         <v>2</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="10">
         <v>43360</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="10">
         <v>43366</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -676,9 +682,9 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
@@ -688,129 +694,141 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="7">
         <v>3</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="10">
+        <v>43367</v>
+      </c>
+      <c r="C16" s="10">
+        <v>43373</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="C11:C15"/>
     <mergeCell ref="C16:C20"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/process.xlsx
+++ b/process.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABEACE02EC4DC3D96A905BDE589E" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7BF7ABB5-2D98-438F-995E-FEC2241A9ED9}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABEACE02EC4DC3D96A905BDE589E" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{C5453030-F132-45C6-8952-C137E6ECBE32}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Tuần</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Chạy thử model mẫu</t>
+  </si>
+  <si>
+    <t>Train trên tập dữ liệu flickr8k và đánh giá</t>
+  </si>
+  <si>
+    <t>Sửa lại code</t>
   </si>
 </sst>
 </file>
@@ -225,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -260,6 +266,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -775,25 +784,36 @@
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="14">
+        <v>43374</v>
+      </c>
+      <c r="C21" s="14">
+        <v>43380</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
@@ -813,8 +833,56 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>5</v>
+      </c>
+      <c r="B26" s="14">
+        <v>43381</v>
+      </c>
+      <c r="C26" s="14">
+        <v>43387</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
